--- a/RunResults.xlsx
+++ b/RunResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TestData\rr\mud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Python\Zetica\mud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9733D5D9-96E8-41C2-B907-1C35D986377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C56127D-D50D-43CF-8569-6CD35BA6CC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27840" windowHeight="7170" xr2:uid="{7539095A-7A95-421C-A81A-6434CDE6C372}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{7539095A-7A95-421C-A81A-6434CDE6C372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,15 +40,9 @@
     <t>Run#</t>
   </si>
   <si>
-    <t>Labelled Clean</t>
-  </si>
-  <si>
     <t>Ranked Clean</t>
   </si>
   <si>
-    <t>Labelled Mud</t>
-  </si>
-  <si>
     <t>Ranked Mud</t>
   </si>
   <si>
@@ -89,6 +83,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Classfied as Clean</t>
+  </si>
+  <si>
+    <t>Classified as Mud</t>
   </si>
 </sst>
 </file>
@@ -124,10 +124,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,66 +450,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8616C3-BE7E-44CE-BBC1-80F25A599F41}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -546,7 +552,7 @@
         <v>91.993720565149133</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -589,12 +595,12 @@
         <v>94.132029339853304</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>10001</v>
@@ -632,12 +638,12 @@
         <v>87.165775401069524</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
@@ -675,12 +681,12 @@
         <v>84.996605566870329</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>10001</v>
@@ -718,7 +724,7 @@
         <v>92.092778070637848</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
